--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efnb3-Ephb4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efnb3-Ephb4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,28 +76,28 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Efnb3</t>
+  </si>
+  <si>
+    <t>Ephb4</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Efnb3</t>
-  </si>
-  <si>
-    <t>Ephb4</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,7 +534,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -543,16 +543,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.06315533333333333</v>
+        <v>0.2163973333333333</v>
       </c>
       <c r="H2">
-        <v>0.189466</v>
+        <v>0.649192</v>
       </c>
       <c r="I2">
-        <v>0.08692959137136652</v>
+        <v>0.2690509661419307</v>
       </c>
       <c r="J2">
-        <v>0.08692959137136655</v>
+        <v>0.2690509661419307</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>27.91686566666667</v>
+        <v>30.74980833333333</v>
       </c>
       <c r="N2">
-        <v>83.750597</v>
+        <v>92.249425</v>
       </c>
       <c r="O2">
-        <v>0.7394739524872079</v>
+        <v>0.8062634835844341</v>
       </c>
       <c r="P2">
-        <v>0.7394739524872082</v>
+        <v>0.8062634835844344</v>
       </c>
       <c r="Q2">
-        <v>1.763098956800222</v>
+        <v>6.654176523844445</v>
       </c>
       <c r="R2">
-        <v>15.867890611202</v>
+        <v>59.8875887146</v>
       </c>
       <c r="S2">
-        <v>0.06428216851948229</v>
+        <v>0.2169259692233507</v>
       </c>
       <c r="T2">
-        <v>0.06428216851948233</v>
+        <v>0.2169259692233508</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -605,16 +605,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.06315533333333333</v>
+        <v>0.2163973333333333</v>
       </c>
       <c r="H3">
-        <v>0.189466</v>
+        <v>0.649192</v>
       </c>
       <c r="I3">
-        <v>0.08692959137136652</v>
+        <v>0.2690509661419307</v>
       </c>
       <c r="J3">
-        <v>0.08692959137136655</v>
+        <v>0.2690509661419307</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>14.775467</v>
       </c>
       <c r="O3">
-        <v>0.1304596429603279</v>
+        <v>0.1291381436253597</v>
       </c>
       <c r="P3">
-        <v>0.1304596429603279</v>
+        <v>0.1291381436253597</v>
       </c>
       <c r="Q3">
-        <v>0.3110498478468888</v>
+        <v>1.065790552518222</v>
       </c>
       <c r="R3">
-        <v>2.799448630622</v>
+        <v>9.592114972664</v>
       </c>
       <c r="S3">
-        <v>0.01134080345299568</v>
+        <v>0.03474474230817844</v>
       </c>
       <c r="T3">
-        <v>0.01134080345299568</v>
+        <v>0.03474474230817845</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.06315533333333333</v>
+        <v>0.2163973333333333</v>
       </c>
       <c r="H4">
-        <v>0.189466</v>
+        <v>0.649192</v>
       </c>
       <c r="I4">
-        <v>0.08692959137136652</v>
+        <v>0.2690509661419307</v>
       </c>
       <c r="J4">
-        <v>0.08692959137136655</v>
+        <v>0.2690509661419307</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -691,22 +691,22 @@
         <v>0.131706</v>
       </c>
       <c r="O4">
-        <v>0.001162895070303561</v>
+        <v>0.00115111544997675</v>
       </c>
       <c r="P4">
-        <v>0.001162895070303561</v>
+        <v>0.001151115449976751</v>
       </c>
       <c r="Q4">
-        <v>0.002772645443999999</v>
+        <v>0.009500275728</v>
       </c>
       <c r="R4">
-        <v>0.024953808996</v>
+        <v>0.08550248155199999</v>
       </c>
       <c r="S4">
-        <v>0.0001010899932692651</v>
+        <v>0.0003097087239571479</v>
       </c>
       <c r="T4">
-        <v>0.0001010899932692652</v>
+        <v>0.0003097087239571481</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -729,16 +729,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.06315533333333333</v>
+        <v>0.2163973333333333</v>
       </c>
       <c r="H5">
-        <v>0.189466</v>
+        <v>0.649192</v>
       </c>
       <c r="I5">
-        <v>0.08692959137136652</v>
+        <v>0.2690509661419307</v>
       </c>
       <c r="J5">
-        <v>0.08692959137136655</v>
+        <v>0.2690509661419307</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.804131333333333</v>
+        <v>2.297296</v>
       </c>
       <c r="N5">
-        <v>14.412394</v>
+        <v>6.891888</v>
       </c>
       <c r="O5">
-        <v>0.1272538983332014</v>
+        <v>0.06023536328116688</v>
       </c>
       <c r="P5">
-        <v>0.1272538983332014</v>
+        <v>0.06023536328116691</v>
       </c>
       <c r="Q5">
-        <v>0.3034065157337777</v>
+        <v>0.4971287282773333</v>
       </c>
       <c r="R5">
-        <v>2.730658641604</v>
+        <v>4.474158554495999</v>
       </c>
       <c r="S5">
-        <v>0.01106212938251862</v>
+        <v>0.01620638268670813</v>
       </c>
       <c r="T5">
-        <v>0.01106212938251862</v>
+        <v>0.01620638268670813</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -791,16 +791,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.06315533333333333</v>
+        <v>0.2163973333333333</v>
       </c>
       <c r="H6">
-        <v>0.189466</v>
+        <v>0.649192</v>
       </c>
       <c r="I6">
-        <v>0.08692959137136652</v>
+        <v>0.2690509661419307</v>
       </c>
       <c r="J6">
-        <v>0.08692959137136655</v>
+        <v>0.2690509661419307</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,33 +809,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.06227666666666667</v>
+        <v>0.08701199999999999</v>
       </c>
       <c r="N6">
-        <v>0.18683</v>
+        <v>0.261036</v>
       </c>
       <c r="O6">
-        <v>0.001649611148959154</v>
+        <v>0.002281464569572616</v>
       </c>
       <c r="P6">
-        <v>0.001649611148959154</v>
+        <v>0.002281464569572617</v>
       </c>
       <c r="Q6">
-        <v>0.003933103642222222</v>
+        <v>0.018829164768</v>
       </c>
       <c r="R6">
-        <v>0.03539793278</v>
+        <v>0.169462482912</v>
       </c>
       <c r="S6">
-        <v>0.0001434000231006697</v>
+        <v>0.0006138302466620965</v>
       </c>
       <c r="T6">
-        <v>0.0001434000231006697</v>
+        <v>0.0006138302466620968</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -844,55 +844,55 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.5618379999999999</v>
+        <v>0.2163973333333333</v>
       </c>
       <c r="H7">
-        <v>1.685514</v>
+        <v>0.649192</v>
       </c>
       <c r="I7">
-        <v>0.7733368692573732</v>
+        <v>0.2690509661419307</v>
       </c>
       <c r="J7">
-        <v>0.7733368692573734</v>
+        <v>0.2690509661419307</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>27.91686566666667</v>
+        <v>0.03548533333333333</v>
       </c>
       <c r="N7">
-        <v>83.750597</v>
+        <v>0.106456</v>
       </c>
       <c r="O7">
-        <v>0.7394739524872079</v>
+        <v>0.0009304294894896583</v>
       </c>
       <c r="P7">
-        <v>0.7394739524872082</v>
+        <v>0.0009304294894896586</v>
       </c>
       <c r="Q7">
-        <v>15.68475597242866</v>
+        <v>0.007678931505777778</v>
       </c>
       <c r="R7">
-        <v>141.162803751858</v>
+        <v>0.069110383552</v>
       </c>
       <c r="S7">
-        <v>0.5718624713138329</v>
+        <v>0.0002503329530741359</v>
       </c>
       <c r="T7">
-        <v>0.5718624713138333</v>
+        <v>0.000250332953074136</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,25 +906,25 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.5618379999999999</v>
+        <v>0.06315533333333333</v>
       </c>
       <c r="H8">
-        <v>1.685514</v>
+        <v>0.189466</v>
       </c>
       <c r="I8">
-        <v>0.7733368692573732</v>
+        <v>0.07852224049441002</v>
       </c>
       <c r="J8">
-        <v>0.7733368692573734</v>
+        <v>0.07852224049441003</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.925155666666666</v>
+        <v>30.74980833333333</v>
       </c>
       <c r="N8">
-        <v>14.775467</v>
+        <v>92.249425</v>
       </c>
       <c r="O8">
-        <v>0.1304596429603279</v>
+        <v>0.8062634835844341</v>
       </c>
       <c r="P8">
-        <v>0.1304596429603279</v>
+        <v>0.8062634835844344</v>
       </c>
       <c r="Q8">
-        <v>2.767139609448666</v>
+        <v>1.942014395227778</v>
       </c>
       <c r="R8">
-        <v>24.904256485038</v>
+        <v>17.47812955705</v>
       </c>
       <c r="S8">
-        <v>0.1008892518513747</v>
+        <v>0.06330961515987774</v>
       </c>
       <c r="T8">
-        <v>0.1008892518513747</v>
+        <v>0.06330961515987778</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,55 +968,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.06315533333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.189466</v>
+      </c>
+      <c r="I9">
+        <v>0.07852224049441002</v>
+      </c>
+      <c r="J9">
+        <v>0.07852224049441003</v>
+      </c>
+      <c r="K9">
         <v>3</v>
       </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.5618379999999999</v>
-      </c>
-      <c r="H9">
-        <v>1.685514</v>
-      </c>
-      <c r="I9">
-        <v>0.7733368692573732</v>
-      </c>
-      <c r="J9">
-        <v>0.7733368692573734</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.043902</v>
+        <v>4.925155666666666</v>
       </c>
       <c r="N9">
-        <v>0.131706</v>
+        <v>14.775467</v>
       </c>
       <c r="O9">
-        <v>0.001162895070303561</v>
+        <v>0.1291381436253597</v>
       </c>
       <c r="P9">
-        <v>0.001162895070303561</v>
+        <v>0.1291381436253597</v>
       </c>
       <c r="Q9">
-        <v>0.024665811876</v>
+        <v>0.3110498478468888</v>
       </c>
       <c r="R9">
-        <v>0.221992306884</v>
+        <v>2.799448630622</v>
       </c>
       <c r="S9">
-        <v>0.0008993096329433887</v>
+        <v>0.01014021637075216</v>
       </c>
       <c r="T9">
-        <v>0.0008993096329433893</v>
+        <v>0.01014021637075216</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>21</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.5618379999999999</v>
+        <v>0.06315533333333333</v>
       </c>
       <c r="H10">
-        <v>1.685514</v>
+        <v>0.189466</v>
       </c>
       <c r="I10">
-        <v>0.7733368692573732</v>
+        <v>0.07852224049441002</v>
       </c>
       <c r="J10">
-        <v>0.7733368692573734</v>
+        <v>0.07852224049441003</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>4.804131333333333</v>
+        <v>0.043902</v>
       </c>
       <c r="N10">
-        <v>14.412394</v>
+        <v>0.131706</v>
       </c>
       <c r="O10">
-        <v>0.1272538983332014</v>
+        <v>0.00115111544997675</v>
       </c>
       <c r="P10">
-        <v>0.1272538983332014</v>
+        <v>0.001151115449976751</v>
       </c>
       <c r="Q10">
-        <v>2.699143540057333</v>
+        <v>0.002772645443999999</v>
       </c>
       <c r="R10">
-        <v>24.292291860516</v>
+        <v>0.024953808996</v>
       </c>
       <c r="S10">
-        <v>0.09841013133779403</v>
+        <v>9.038816419990538E-05</v>
       </c>
       <c r="T10">
-        <v>0.09841013133779407</v>
+        <v>9.038816419990545E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,57 +1095,57 @@
         <v>22</v>
       </c>
       <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.06315533333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.189466</v>
+      </c>
+      <c r="I11">
+        <v>0.07852224049441002</v>
+      </c>
+      <c r="J11">
+        <v>0.07852224049441003</v>
+      </c>
+      <c r="K11">
         <v>3</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.5618379999999999</v>
-      </c>
-      <c r="H11">
-        <v>1.685514</v>
-      </c>
-      <c r="I11">
-        <v>0.7733368692573732</v>
-      </c>
-      <c r="J11">
-        <v>0.7733368692573734</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.06227666666666667</v>
+        <v>2.297296</v>
       </c>
       <c r="N11">
-        <v>0.18683</v>
+        <v>6.891888</v>
       </c>
       <c r="O11">
-        <v>0.001649611148959154</v>
+        <v>0.06023536328116688</v>
       </c>
       <c r="P11">
-        <v>0.001649611148959154</v>
+        <v>0.06023536328116691</v>
       </c>
       <c r="Q11">
-        <v>0.03498939784666667</v>
+        <v>0.1450864946453333</v>
       </c>
       <c r="R11">
-        <v>0.31490458062</v>
+        <v>1.305778451808</v>
       </c>
       <c r="S11">
-        <v>0.00127570512142813</v>
+        <v>0.004729815681831941</v>
       </c>
       <c r="T11">
-        <v>0.001275705121428131</v>
+        <v>0.004729815681831943</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1154,7 +1154,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1163,51 +1163,51 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.073382</v>
+        <v>0.06315533333333333</v>
       </c>
       <c r="H12">
-        <v>0.220146</v>
+        <v>0.189466</v>
       </c>
       <c r="I12">
-        <v>0.1010059948594516</v>
+        <v>0.07852224049441002</v>
       </c>
       <c r="J12">
-        <v>0.1010059948594516</v>
+        <v>0.07852224049441003</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>27.91686566666667</v>
+        <v>0.08701199999999999</v>
       </c>
       <c r="N12">
-        <v>83.750597</v>
+        <v>0.261036</v>
       </c>
       <c r="O12">
-        <v>0.7394739524872079</v>
+        <v>0.002281464569572616</v>
       </c>
       <c r="P12">
-        <v>0.7394739524872082</v>
+        <v>0.002281464569572617</v>
       </c>
       <c r="Q12">
-        <v>2.048595436351333</v>
+        <v>0.005495271863999999</v>
       </c>
       <c r="R12">
-        <v>18.437358927162</v>
+        <v>0.049457446776</v>
       </c>
       <c r="S12">
-        <v>0.07469130224362129</v>
+        <v>0.0001791457096114566</v>
       </c>
       <c r="T12">
-        <v>0.07469130224362132</v>
+        <v>0.0001791457096114567</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1216,7 +1216,7 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1225,46 +1225,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.073382</v>
+        <v>0.06315533333333333</v>
       </c>
       <c r="H13">
-        <v>0.220146</v>
+        <v>0.189466</v>
       </c>
       <c r="I13">
-        <v>0.1010059948594516</v>
+        <v>0.07852224049441002</v>
       </c>
       <c r="J13">
-        <v>0.1010059948594516</v>
+        <v>0.07852224049441003</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>4.925155666666666</v>
+        <v>0.03548533333333333</v>
       </c>
       <c r="N13">
-        <v>14.775467</v>
+        <v>0.106456</v>
       </c>
       <c r="O13">
-        <v>0.1304596429603279</v>
+        <v>0.0009304294894896583</v>
       </c>
       <c r="P13">
-        <v>0.1304596429603279</v>
+        <v>0.0009304294894896586</v>
       </c>
       <c r="Q13">
-        <v>0.3614177731313333</v>
+        <v>0.002241088055111111</v>
       </c>
       <c r="R13">
-        <v>3.252759958182</v>
+        <v>0.020169792496</v>
       </c>
       <c r="S13">
-        <v>0.01317720602621677</v>
+        <v>7.305940813679809E-05</v>
       </c>
       <c r="T13">
-        <v>0.01317720602621678</v>
+        <v>7.305940813679813E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.073382</v>
+        <v>0.4426526666666666</v>
       </c>
       <c r="H14">
-        <v>0.220146</v>
+        <v>1.327958</v>
       </c>
       <c r="I14">
-        <v>0.1010059948594516</v>
+        <v>0.5503585732663155</v>
       </c>
       <c r="J14">
-        <v>0.1010059948594516</v>
+        <v>0.5503585732663157</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.043902</v>
+        <v>30.74980833333333</v>
       </c>
       <c r="N14">
-        <v>0.131706</v>
+        <v>92.249425</v>
       </c>
       <c r="O14">
-        <v>0.001162895070303561</v>
+        <v>0.8062634835844341</v>
       </c>
       <c r="P14">
-        <v>0.001162895070303561</v>
+        <v>0.8062634835844344</v>
       </c>
       <c r="Q14">
-        <v>0.003221616564</v>
+        <v>13.61148465823889</v>
       </c>
       <c r="R14">
-        <v>0.028994549076</v>
+        <v>122.50336192415</v>
       </c>
       <c r="S14">
-        <v>0.0001174593734931631</v>
+        <v>0.4437340205022586</v>
       </c>
       <c r="T14">
-        <v>0.0001174593734931631</v>
+        <v>0.4437340205022589</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,25 +1340,25 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.073382</v>
+        <v>0.4426526666666666</v>
       </c>
       <c r="H15">
-        <v>0.220146</v>
+        <v>1.327958</v>
       </c>
       <c r="I15">
-        <v>0.1010059948594516</v>
+        <v>0.5503585732663155</v>
       </c>
       <c r="J15">
-        <v>0.1010059948594516</v>
+        <v>0.5503585732663157</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.804131333333333</v>
+        <v>4.925155666666666</v>
       </c>
       <c r="N15">
-        <v>14.412394</v>
+        <v>14.775467</v>
       </c>
       <c r="O15">
-        <v>0.1272538983332014</v>
+        <v>0.1291381436253597</v>
       </c>
       <c r="P15">
-        <v>0.1272538983332014</v>
+        <v>0.1291381436253597</v>
       </c>
       <c r="Q15">
-        <v>0.3525367655026667</v>
+        <v>2.180133289598444</v>
       </c>
       <c r="R15">
-        <v>3.172830889524</v>
+        <v>19.621199606386</v>
       </c>
       <c r="S15">
-        <v>0.01285340660088852</v>
+        <v>0.0710722844799135</v>
       </c>
       <c r="T15">
-        <v>0.01285340660088852</v>
+        <v>0.07107228447991355</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,25 +1402,25 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.073382</v>
+        <v>0.4426526666666666</v>
       </c>
       <c r="H16">
-        <v>0.220146</v>
+        <v>1.327958</v>
       </c>
       <c r="I16">
-        <v>0.1010059948594516</v>
+        <v>0.5503585732663155</v>
       </c>
       <c r="J16">
-        <v>0.1010059948594516</v>
+        <v>0.5503585732663157</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1429,33 +1429,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.06227666666666667</v>
+        <v>0.043902</v>
       </c>
       <c r="N16">
-        <v>0.18683</v>
+        <v>0.131706</v>
       </c>
       <c r="O16">
-        <v>0.001649611148959154</v>
+        <v>0.00115111544997675</v>
       </c>
       <c r="P16">
-        <v>0.001649611148959154</v>
+        <v>0.001151115449976751</v>
       </c>
       <c r="Q16">
-        <v>0.004569986353333334</v>
+        <v>0.019433337372</v>
       </c>
       <c r="R16">
-        <v>0.04112987718</v>
+        <v>0.174900036348</v>
       </c>
       <c r="S16">
-        <v>0.0001666206152318623</v>
+        <v>0.000633526256714017</v>
       </c>
       <c r="T16">
-        <v>0.0001666206152318624</v>
+        <v>0.0006335262567140175</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
         <v>24</v>
@@ -1464,25 +1464,25 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.028136</v>
+        <v>0.4426526666666666</v>
       </c>
       <c r="H17">
-        <v>0.08440800000000001</v>
+        <v>1.327958</v>
       </c>
       <c r="I17">
-        <v>0.03872754451180849</v>
+        <v>0.5503585732663155</v>
       </c>
       <c r="J17">
-        <v>0.03872754451180849</v>
+        <v>0.5503585732663157</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,33 +1491,33 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>27.91686566666667</v>
+        <v>2.297296</v>
       </c>
       <c r="N17">
-        <v>83.750597</v>
+        <v>6.891888</v>
       </c>
       <c r="O17">
-        <v>0.7394739524872079</v>
+        <v>0.06023536328116688</v>
       </c>
       <c r="P17">
-        <v>0.7394739524872082</v>
+        <v>0.06023536328116691</v>
       </c>
       <c r="Q17">
-        <v>0.7854689323973335</v>
+        <v>1.016904200522667</v>
       </c>
       <c r="R17">
-        <v>7.069220391576001</v>
+        <v>9.152137804703999</v>
       </c>
       <c r="S17">
-        <v>0.0286380104102713</v>
+        <v>0.03315104859560122</v>
       </c>
       <c r="T17">
-        <v>0.02863801041027131</v>
+        <v>0.03315104859560124</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>24</v>
@@ -1529,84 +1529,84 @@
         <v>27</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.028136</v>
+        <v>0.4426526666666666</v>
       </c>
       <c r="H18">
-        <v>0.08440800000000001</v>
+        <v>1.327958</v>
       </c>
       <c r="I18">
-        <v>0.03872754451180849</v>
+        <v>0.5503585732663155</v>
       </c>
       <c r="J18">
-        <v>0.03872754451180849</v>
+        <v>0.5503585732663157</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>4.925155666666666</v>
+        <v>0.08701199999999999</v>
       </c>
       <c r="N18">
-        <v>14.775467</v>
+        <v>0.261036</v>
       </c>
       <c r="O18">
-        <v>0.1304596429603279</v>
+        <v>0.002281464569572616</v>
       </c>
       <c r="P18">
-        <v>0.1304596429603279</v>
+        <v>0.002281464569572617</v>
       </c>
       <c r="Q18">
-        <v>0.1385741798373333</v>
+        <v>0.03851609383199999</v>
       </c>
       <c r="R18">
-        <v>1.247167618536</v>
+        <v>0.346644844488</v>
       </c>
       <c r="S18">
-        <v>0.005052381629740742</v>
+        <v>0.001255623585467634</v>
       </c>
       <c r="T18">
-        <v>0.005052381629740743</v>
+        <v>0.001255623585467635</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>20</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.028136</v>
+        <v>0.4426526666666666</v>
       </c>
       <c r="H19">
-        <v>0.08440800000000001</v>
+        <v>1.327958</v>
       </c>
       <c r="I19">
-        <v>0.03872754451180849</v>
+        <v>0.5503585732663155</v>
       </c>
       <c r="J19">
-        <v>0.03872754451180849</v>
+        <v>0.5503585732663157</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1615,28 +1615,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.043902</v>
+        <v>0.03548533333333333</v>
       </c>
       <c r="N19">
-        <v>0.131706</v>
+        <v>0.106456</v>
       </c>
       <c r="O19">
-        <v>0.001162895070303561</v>
+        <v>0.0009304294894896583</v>
       </c>
       <c r="P19">
-        <v>0.001162895070303561</v>
+        <v>0.0009304294894896586</v>
       </c>
       <c r="Q19">
-        <v>0.001235226672</v>
+        <v>0.01570767742755555</v>
       </c>
       <c r="R19">
-        <v>0.011117040048</v>
+        <v>0.141369096848</v>
       </c>
       <c r="S19">
-        <v>4.503607059774382E-05</v>
+        <v>0.0005120698463604347</v>
       </c>
       <c r="T19">
-        <v>4.503607059774384E-05</v>
+        <v>0.0005120698463604349</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1659,16 +1659,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.028136</v>
+        <v>0.08209333333333334</v>
       </c>
       <c r="H20">
-        <v>0.08440800000000001</v>
+        <v>0.24628</v>
       </c>
       <c r="I20">
-        <v>0.03872754451180849</v>
+        <v>0.1020682200973436</v>
       </c>
       <c r="J20">
-        <v>0.03872754451180849</v>
+        <v>0.1020682200973436</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.804131333333333</v>
+        <v>30.74980833333333</v>
       </c>
       <c r="N20">
-        <v>14.412394</v>
+        <v>92.249425</v>
       </c>
       <c r="O20">
-        <v>0.1272538983332014</v>
+        <v>0.8062634835844341</v>
       </c>
       <c r="P20">
-        <v>0.1272538983332014</v>
+        <v>0.8062634835844344</v>
       </c>
       <c r="Q20">
-        <v>0.1351690391946667</v>
+        <v>2.524354265444445</v>
       </c>
       <c r="R20">
-        <v>1.216521352752</v>
+        <v>22.719188389</v>
       </c>
       <c r="S20">
-        <v>0.00492823101200021</v>
+        <v>0.082293878698947</v>
       </c>
       <c r="T20">
-        <v>0.004928231012000211</v>
+        <v>0.08229387869894704</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,55 +1712,303 @@
         <v>25</v>
       </c>
       <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.08209333333333334</v>
+      </c>
+      <c r="H21">
+        <v>0.24628</v>
+      </c>
+      <c r="I21">
+        <v>0.1020682200973436</v>
+      </c>
+      <c r="J21">
+        <v>0.1020682200973436</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>4.925155666666666</v>
+      </c>
+      <c r="N21">
+        <v>14.775467</v>
+      </c>
+      <c r="O21">
+        <v>0.1291381436253597</v>
+      </c>
+      <c r="P21">
+        <v>0.1291381436253597</v>
+      </c>
+      <c r="Q21">
+        <v>0.4043224458622222</v>
+      </c>
+      <c r="R21">
+        <v>3.63890201276</v>
+      </c>
+      <c r="S21">
+        <v>0.01318090046651558</v>
+      </c>
+      <c r="T21">
+        <v>0.01318090046651559</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.08209333333333334</v>
+      </c>
+      <c r="H22">
+        <v>0.24628</v>
+      </c>
+      <c r="I22">
+        <v>0.1020682200973436</v>
+      </c>
+      <c r="J22">
+        <v>0.1020682200973436</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.043902</v>
+      </c>
+      <c r="N22">
+        <v>0.131706</v>
+      </c>
+      <c r="O22">
+        <v>0.00115111544997675</v>
+      </c>
+      <c r="P22">
+        <v>0.001151115449976751</v>
+      </c>
+      <c r="Q22">
+        <v>0.00360406152</v>
+      </c>
+      <c r="R22">
+        <v>0.03243655368</v>
+      </c>
+      <c r="S22">
+        <v>0.0001174923051056797</v>
+      </c>
+      <c r="T22">
+        <v>0.0001174923051056797</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
         <v>22</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G21">
-        <v>0.028136</v>
-      </c>
-      <c r="H21">
-        <v>0.08440800000000001</v>
-      </c>
-      <c r="I21">
-        <v>0.03872754451180849</v>
-      </c>
-      <c r="J21">
-        <v>0.03872754451180849</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M21">
-        <v>0.06227666666666667</v>
-      </c>
-      <c r="N21">
-        <v>0.18683</v>
-      </c>
-      <c r="O21">
-        <v>0.001649611148959154</v>
-      </c>
-      <c r="P21">
-        <v>0.001649611148959154</v>
-      </c>
-      <c r="Q21">
-        <v>0.001752216293333334</v>
-      </c>
-      <c r="R21">
-        <v>0.01576994664</v>
-      </c>
-      <c r="S21">
-        <v>6.388538919849117E-05</v>
-      </c>
-      <c r="T21">
-        <v>6.38853891984912E-05</v>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.08209333333333334</v>
+      </c>
+      <c r="H23">
+        <v>0.24628</v>
+      </c>
+      <c r="I23">
+        <v>0.1020682200973436</v>
+      </c>
+      <c r="J23">
+        <v>0.1020682200973436</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2.297296</v>
+      </c>
+      <c r="N23">
+        <v>6.891888</v>
+      </c>
+      <c r="O23">
+        <v>0.06023536328116688</v>
+      </c>
+      <c r="P23">
+        <v>0.06023536328116691</v>
+      </c>
+      <c r="Q23">
+        <v>0.1885926862933333</v>
+      </c>
+      <c r="R23">
+        <v>1.69733417664</v>
+      </c>
+      <c r="S23">
+        <v>0.006148116317025591</v>
+      </c>
+      <c r="T23">
+        <v>0.006148116317025594</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.08209333333333334</v>
+      </c>
+      <c r="H24">
+        <v>0.24628</v>
+      </c>
+      <c r="I24">
+        <v>0.1020682200973436</v>
+      </c>
+      <c r="J24">
+        <v>0.1020682200973436</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.08701199999999999</v>
+      </c>
+      <c r="N24">
+        <v>0.261036</v>
+      </c>
+      <c r="O24">
+        <v>0.002281464569572616</v>
+      </c>
+      <c r="P24">
+        <v>0.002281464569572617</v>
+      </c>
+      <c r="Q24">
+        <v>0.00714310512</v>
+      </c>
+      <c r="R24">
+        <v>0.06428794607999999</v>
+      </c>
+      <c r="S24">
+        <v>0.0002328650278314291</v>
+      </c>
+      <c r="T24">
+        <v>0.0002328650278314292</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.08209333333333334</v>
+      </c>
+      <c r="H25">
+        <v>0.24628</v>
+      </c>
+      <c r="I25">
+        <v>0.1020682200973436</v>
+      </c>
+      <c r="J25">
+        <v>0.1020682200973436</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.03548533333333333</v>
+      </c>
+      <c r="N25">
+        <v>0.106456</v>
+      </c>
+      <c r="O25">
+        <v>0.0009304294894896583</v>
+      </c>
+      <c r="P25">
+        <v>0.0009304294894896586</v>
+      </c>
+      <c r="Q25">
+        <v>0.002913109297777778</v>
+      </c>
+      <c r="R25">
+        <v>0.02621798368</v>
+      </c>
+      <c r="S25">
+        <v>9.496728191828949E-05</v>
+      </c>
+      <c r="T25">
+        <v>9.496728191828952E-05</v>
       </c>
     </row>
   </sheetData>
